--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3692.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3692.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.662614758591422</v>
+        <v>2.038426160812378</v>
       </c>
       <c r="B1">
-        <v>5.160569402990112</v>
+        <v>4.346137046813965</v>
       </c>
       <c r="C1">
-        <v>5.23396166201217</v>
+        <v>3.435123443603516</v>
       </c>
       <c r="D1">
-        <v>1.399144804917643</v>
+        <v>2.218516111373901</v>
       </c>
       <c r="E1">
-        <v>0.9110291629405276</v>
+        <v>2.037258625030518</v>
       </c>
     </row>
   </sheetData>
